--- a/fixtures/06 - atomizers.xlsx
+++ b/fixtures/06 - atomizers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7B48B-3BA6-4D96-BFEE-7759AA6E0974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B426961A-6201-477A-BAA9-6A53789024A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8115" yWindow="1935" windowWidth="40680" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="1065" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>Kronos 2 S 23mm</t>
   </si>
   <si>
-    <t>Ambition MODS</t>
-  </si>
-  <si>
     <t>Ripley RDTA</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>cost</t>
+  </si>
+  <si>
+    <t>Ambition Mods</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +562,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,19 +582,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -605,16 +605,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -628,16 +628,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>150</v>
@@ -651,16 +651,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
       <c r="G4">
         <v>250</v>
@@ -674,16 +674,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -697,16 +697,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
       <c r="G6">
         <v>75</v>
@@ -720,16 +720,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>275</v>
@@ -737,22 +737,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -760,22 +760,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>300</v>
@@ -786,19 +786,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>275</v>
@@ -809,19 +809,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>275</v>
@@ -829,62 +829,62 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
       </c>
       <c r="G14">
         <v>75</v>
@@ -892,22 +892,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
       </c>
       <c r="G15">
         <v>275</v>
@@ -915,22 +915,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>75</v>
@@ -941,19 +941,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>275</v>
@@ -961,22 +961,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
